--- a/src/assets/StrategyExample.xlsx
+++ b/src/assets/StrategyExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6647C2-F0BE-45CB-A89D-4B14F7F7C3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817ABE2-80D1-4811-AC70-EF58AF8221D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Stocks</t>
   </si>
@@ -34,74 +34,128 @@
     <t>Monthly average Data</t>
   </si>
   <si>
-    <t>Nifty100Alpha30</t>
-  </si>
-  <si>
-    <t>NIFTY100EQLWGT</t>
-  </si>
-  <si>
-    <t>NIFTY100LOWVOL30</t>
-  </si>
-  <si>
-    <t>NIFTY100QUALTY30</t>
-  </si>
-  <si>
-    <t>Nifty200Alpha30</t>
-  </si>
-  <si>
-    <t>Nifty200Momentm30</t>
-  </si>
-  <si>
-    <t>NIFTY200QUALITY30</t>
-  </si>
-  <si>
-    <t>Nifty500Value50</t>
-  </si>
-  <si>
-    <t>NIFTY50EQLWGT</t>
-  </si>
-  <si>
-    <t>Nifty50Value20</t>
-  </si>
-  <si>
-    <t>NIFTYALPHA50</t>
-  </si>
-  <si>
-    <t>NIFTYALPHAQUALITYLOWVOLATILITY30</t>
-  </si>
-  <si>
-    <t>NIFTYALPHAQUALITYVALUELOWVOLATILITY30</t>
-  </si>
-  <si>
-    <t>NiftyDivOpps50</t>
-  </si>
-  <si>
-    <t>NiftyGrowSect15</t>
-  </si>
-  <si>
-    <t>NIFTYHIGHBETA50</t>
-  </si>
-  <si>
-    <t>NIFTYLOWVOLATILITY50</t>
-  </si>
-  <si>
-    <t>NiftyMidcap150Momentum50</t>
-  </si>
-  <si>
-    <t>NIFTYQUALITYLOWVOLATILITY30</t>
-  </si>
-  <si>
-    <t>NiftySmallcap250MomentumQuality100</t>
-  </si>
-  <si>
-    <t>NiftySmallcap250Quality50Index</t>
+    <t>NFT100EQLWGT</t>
+  </si>
+  <si>
+    <t>NFT100LVLT30</t>
+  </si>
+  <si>
+    <t>NFT50A</t>
+  </si>
+  <si>
+    <t>NFT50FPR</t>
+  </si>
+  <si>
+    <t>NFT50FTR</t>
+  </si>
+  <si>
+    <t>NFT200MOM30</t>
+  </si>
+  <si>
+    <t>NFT200AL30</t>
+  </si>
+  <si>
+    <t>NFT100AL30</t>
+  </si>
+  <si>
+    <t>NFTAL50</t>
+  </si>
+  <si>
+    <t>NFTALVLT30</t>
+  </si>
+  <si>
+    <t>NFTAQLTLVLT30</t>
+  </si>
+  <si>
+    <t>NFTAQLTVLLVLT30</t>
+  </si>
+  <si>
+    <t>NFTDO50</t>
+  </si>
+  <si>
+    <t>NFTGRTHSEC15</t>
+  </si>
+  <si>
+    <t>NFTHBETA50</t>
+  </si>
+  <si>
+    <t>NFTLVLT50</t>
+  </si>
+  <si>
+    <t>NFTT10EQLWGT</t>
+  </si>
+  <si>
+    <t>NFT100QLT30</t>
+  </si>
+  <si>
+    <t>NFTMC150MOM50</t>
+  </si>
+  <si>
+    <t>NFT500MOM50</t>
+  </si>
+  <si>
+    <t>NFTMC150QLT50</t>
+  </si>
+  <si>
+    <t>NFTSC250QLT50</t>
+  </si>
+  <si>
+    <t>NFTMSC400MOMQLT100</t>
+  </si>
+  <si>
+    <t>NFTSC250MOMQLT100</t>
+  </si>
+  <si>
+    <t>NFTQLTLVLT30</t>
+  </si>
+  <si>
+    <t>NFT50DIVPNT</t>
+  </si>
+  <si>
+    <t>NFT50EW</t>
+  </si>
+  <si>
+    <t>NFT50PR1XINVS</t>
+  </si>
+  <si>
+    <t>NFT50PR2XLVG</t>
+  </si>
+  <si>
+    <t>NFT50TR1XINVS</t>
+  </si>
+  <si>
+    <t>NFT50TR2XLVG</t>
+  </si>
+  <si>
+    <t>NFT50VL20</t>
+  </si>
+  <si>
+    <t>NFT200VL30</t>
+  </si>
+  <si>
+    <t>NFT500VL50</t>
+  </si>
+  <si>
+    <t>NFT500EQLWGT</t>
+  </si>
+  <si>
+    <t>NFT200QLT30</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP/B</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP/E</t>
+  </si>
+  <si>
+    <t>NFTEQTSAV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,12 +181,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="&quot;Aptos Narrow&quot;"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,17 +221,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,31 +467,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
@@ -430,8 +501,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
@@ -439,8 +510,8 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="13.8">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -448,8 +519,8 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="13.8">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4">
@@ -457,8 +528,8 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="13.8">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
@@ -466,8 +537,8 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="13.8">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4">
@@ -475,8 +546,8 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="13.8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4">
@@ -484,8 +555,8 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="13.8">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4">
@@ -493,8 +564,8 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="13.8">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4">
@@ -502,8 +573,8 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="13.8">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4">
@@ -511,8 +582,8 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="13.8">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
@@ -520,8 +591,8 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="13.8">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4">
@@ -529,8 +600,8 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="13.8">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4">
@@ -538,8 +609,8 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="13.8">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4">
@@ -547,8 +618,8 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="13.8">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4">
@@ -556,8 +627,8 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="13.8">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4">
@@ -565,48 +636,193 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="4">
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="4">
         <v>0.66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>0.92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/StrategyExample.xlsx
+++ b/src/assets/StrategyExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817ABE2-80D1-4811-AC70-EF58AF8221D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E23B8E3-E032-41A0-88B8-C79ED7119C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,13 +142,13 @@
     <t>NFT200QLT30</t>
   </si>
   <si>
-    <t>NFT50SRTDURDEBTDYNP/B</t>
-  </si>
-  <si>
-    <t>NFT50SRTDURDEBTDYNP/E</t>
-  </si>
-  <si>
     <t>NFTEQTSAV</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP_B</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP_E</t>
   </si>
 </sst>
 </file>
@@ -469,13 +469,13 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -798,7 +798,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4">
         <v>0.66</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4">
         <v>0.46</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4">
         <v>0.45</v>
